--- a/biology/Médecine/Gerhard_Schiedlausky/Gerhard_Schiedlausky.xlsx
+++ b/biology/Médecine/Gerhard_Schiedlausky/Gerhard_Schiedlausky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerhard Schiedlausky, né le 14 janvier 1906 à Berlin et mort le 3 mai 1947 à Hamelin, est un médecin et criminel nazi.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il étudie la médecine à Berlin et à Innsbruck, et passe son examen d'État à Berlin en 1931.
 Il est membre du parti nazi dès le 1er septembre 1931 (numéro de membre 617 194), et membre de la SS de décembre 1932 à juillet 1933 et de nouveau à partir de 1936 (numéro SS 213.323). Entre-temps, il est médecin expert auprès de la police de 1933 à 1934, ce qui l'oblige à quitter la SS. Il exerce ensuite jusqu'en 1939, comme médecin en dehors de la SS.
@@ -521,9 +535,9 @@
 Dans le premier des sept procès de Ravensbrück, les témoins rapportent unanimement qu'il a maltraité et insulté les femmes lors de soi-disantes visites médicales. C'est également Schiedlausky qui a lui-même demandé au commandant du camp les prisonniers nécessaires aux expériences médicales nazies. Schielausky nie les faits et expose au le tribunal qu'il n'a participé qu'à des opérations, mais pas à des sélections ou à des expériences.
 Le 3 février 1947, il est condamné à mort à Hambourg. Sa mère et sa femme font un recours en grâce au motif qu'il est un bon médecin et ne peut donc avoir commis les crimes dont on l'accuse. Les demandes sont rejetées et Schiedlausky est transféré à Hamelin, où il est pendu le 3 mai 1947 à 9h37.
 Schiedlausky a commis les crimes suivants :
-expériences de régénération osseuse, musculaire et nerveuse sur des personnes en bonne santé[1]  ;
-expériences avec des sulfamides : les victimes sont infectées par des bactéries (streptocoque, gangrène gazeuse, tétanos)[2] ;
-soi-disant « Essais cliniques »[3]</t>
+expériences de régénération osseuse, musculaire et nerveuse sur des personnes en bonne santé  ;
+expériences avec des sulfamides : les victimes sont infectées par des bactéries (streptocoque, gangrène gazeuse, tétanos) ;
+soi-disant « Essais cliniques »</t>
         </is>
       </c>
     </row>
